--- a/2022级/naive_all_d1_0.2_d2_0.4_d3_0.6_processed_2022级核物二班.xlsx
+++ b/2022级/naive_all_d1_0.2_d2_0.4_d3_0.6_processed_2022级核物二班.xlsx
@@ -538,7 +538,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
         <v>11</v>
@@ -578,7 +578,7 @@
         <v>92</v>
       </c>
       <c r="R2" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3">
@@ -874,7 +874,7 @@
         <v>16.5</v>
       </c>
       <c r="D8" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -914,7 +914,7 @@
         <v>80</v>
       </c>
       <c r="R8" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -1210,7 +1210,7 @@
         <v>16</v>
       </c>
       <c r="D14" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14" t="n">
         <v>10.5</v>
@@ -1250,7 +1250,7 @@
         <v>86</v>
       </c>
       <c r="R14" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15">
@@ -1772,7 +1772,7 @@
         <v>16</v>
       </c>
       <c r="D24" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E24" t="n">
         <v>11</v>
@@ -1812,7 +1812,7 @@
         <v>86</v>
       </c>
       <c r="R24" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
@@ -2052,7 +2052,7 @@
         <v>16.5</v>
       </c>
       <c r="D29" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2092,7 +2092,7 @@
         <v>88</v>
       </c>
       <c r="R29" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
@@ -2220,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E32" t="n">
         <v>6</v>
@@ -2260,7 +2260,7 @@
         <v>76</v>
       </c>
       <c r="R32" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -2316,7 +2316,7 @@
         <v>76</v>
       </c>
       <c r="R33" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
